--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/DFIGInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/DFIGInfiniteBus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="I5" s="6">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="J5" s="6">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K5" s="6">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1483,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1707,7 +1707,7 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
